--- a/trog_javitott/trog_javitott_task.xlsx
+++ b/trog_javitott/trog_javitott_task.xlsx
@@ -597,9 +597,6 @@
     <t>trial</t>
   </si>
   <si>
-    <t>pragm_type</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -616,6 +613,9 @@
   </si>
   <si>
     <t>image4</t>
+  </si>
+  <si>
+    <t>pragmatic_type</t>
   </si>
 </sst>
 </file>
@@ -1456,25 +1456,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1485,7 +1485,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1503,7 +1503,7 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1514,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D3" t="s">
         <v>68</v>
@@ -1532,7 +1532,7 @@
         <v>72</v>
       </c>
       <c r="I3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1543,7 +1543,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
@@ -1561,7 +1561,7 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1572,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
@@ -1590,7 +1590,7 @@
         <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1601,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D6" t="s">
         <v>78</v>
@@ -1619,7 +1619,7 @@
         <v>82</v>
       </c>
       <c r="I6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -1648,7 +1648,7 @@
         <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1659,7 +1659,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D8" t="s">
         <v>88</v>
@@ -1677,7 +1677,7 @@
         <v>92</v>
       </c>
       <c r="I8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1688,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D9" t="s">
         <v>53</v>
@@ -1706,7 +1706,7 @@
         <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1717,7 +1717,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -1735,7 +1735,7 @@
         <v>7</v>
       </c>
       <c r="I10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1746,7 +1746,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
@@ -1764,7 +1764,7 @@
         <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1775,7 +1775,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D12" t="s">
         <v>63</v>
@@ -1793,7 +1793,7 @@
         <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1804,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -1822,7 +1822,7 @@
         <v>27</v>
       </c>
       <c r="I13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1833,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -1851,7 +1851,7 @@
         <v>22</v>
       </c>
       <c r="I14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1862,7 +1862,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
@@ -1880,7 +1880,7 @@
         <v>52</v>
       </c>
       <c r="I15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1891,7 +1891,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D16" t="s">
         <v>58</v>
@@ -1909,7 +1909,7 @@
         <v>62</v>
       </c>
       <c r="I16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1920,7 +1920,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -1938,7 +1938,7 @@
         <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1949,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D18" t="s">
         <v>83</v>
@@ -1967,7 +1967,7 @@
         <v>87</v>
       </c>
       <c r="I18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1978,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D19" t="s">
         <v>73</v>
@@ -1996,7 +1996,7 @@
         <v>77</v>
       </c>
       <c r="I19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -2025,7 +2025,7 @@
         <v>159</v>
       </c>
       <c r="I20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -2054,7 +2054,7 @@
         <v>117</v>
       </c>
       <c r="I21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -2083,7 +2083,7 @@
         <v>122</v>
       </c>
       <c r="I22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -2112,7 +2112,7 @@
         <v>99</v>
       </c>
       <c r="I23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -2141,7 +2141,7 @@
         <v>138</v>
       </c>
       <c r="I24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -2170,7 +2170,7 @@
         <v>185</v>
       </c>
       <c r="I25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -2199,7 +2199,7 @@
         <v>127</v>
       </c>
       <c r="I26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -2228,7 +2228,7 @@
         <v>105</v>
       </c>
       <c r="I27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -2257,7 +2257,7 @@
         <v>175</v>
       </c>
       <c r="I28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -2286,7 +2286,7 @@
         <v>190</v>
       </c>
       <c r="I29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -2315,7 +2315,7 @@
         <v>148</v>
       </c>
       <c r="I30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -2344,7 +2344,7 @@
         <v>111</v>
       </c>
       <c r="I31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -2373,7 +2373,7 @@
         <v>170</v>
       </c>
       <c r="I32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -2402,7 +2402,7 @@
         <v>180</v>
       </c>
       <c r="I33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -2431,7 +2431,7 @@
         <v>143</v>
       </c>
       <c r="I34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -2460,7 +2460,7 @@
         <v>133</v>
       </c>
       <c r="I35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -2489,7 +2489,7 @@
         <v>164</v>
       </c>
       <c r="I36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -2518,7 +2518,7 @@
         <v>154</v>
       </c>
       <c r="I37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
